--- a/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
+++ b/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
@@ -482,11 +482,11 @@
     <t xml:space="preserve">traceback</t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "Code Style", "text": "Number 123456 should separate every third digit with an underscore", "line": "int variable = 123456;  // Change this line", "line_number": 4, "column_number": 1, "category": "BEST_PRACTICES", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "Code Style", "text": "Number 123456 should separate every third digit with an underscore", "line": "int variable = 123456;  // Change this line", "line_number": 4, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 1, "category": "CODE_STYLE", "penalty_influence": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 1, "category": "CODE_STYLE", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
@@ -494,27 +494,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 1, "category": "ERROR_PRONE", "penalty_influence": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "penalty_influence": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 1, "category": "ERROR_PRONE", "influence_on_penalty": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 1, "category": "CODE_STYLE", "penalty_influence": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 1, "category": "CODE_STYLE", "penalty_influence": 0}, {"code": "Code Style", "text": "Number 10000 should separate every third digit with an underscore", "line": "HashTable&lt;String&gt; ht = new HashTable(10000);", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "Code Style", "text": "Number 10000 should separate every third digit with an underscore", "line": "HashTable&lt;String&gt; ht = new HashTable(10000);", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "NoSemicolons", "text": "Unnecessary semicolon", "line": "import java.util.*;", "line_number": 1, "column_number": 19, "category": "CODE_STYLE", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "NoSemicolons", "text": "Unnecessary semicolon", "line": "import java.util.*;", "line_number": 1, "column_number": 19, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundOperators", "text": "Missing spacing around \"/\"", "line": "print(3/0)", "line_number": 3, "column_number": 12, "category": "CODE_STYLE", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundOperators", "text": "Missing spacing around \"/\"", "line": "print(3/0)", "line_number": 3, "column_number": 12, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundCurly", "text": "Missing spacing before \"{\"", "line": "repeat(10){", "line_number": 8, "column_number": 15, "category": "CODE_STYLE", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundCurly", "text": "Missing spacing before \"{\"", "line": "repeat(10){", "line_number": 8, "column_number": 15, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "WPS327", "text": "Found useless `continue` at the end of the loop", "line": "for word in words:", "line_number": 3, "column_number": 1, "category": "BEST_PRACTICES", "penalty_influence": 0}, {"code": "WPS223", "text": "Found too many `elif` branches: 5 &gt; 3", "line": "if word.startswith(\"WWW.\"):", "line_number": 5, "column_number": 5, "category": "COMPLEXITY", "penalty_influence": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "WPS327", "text": "Found useless `continue` at the end of the loop", "line": "for word in words:", "line_number": 3, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "WPS223", "text": "Found too many `elif` branches: 5 &gt; 3", "line": "if word.startswith(\"WWW.\"):", "line_number": 5, "column_number": 5, "category": "COMPLEXITY", "influence_on_penalty": 0}]}
 </t>
   </si>
 </sst>
@@ -733,9 +733,9 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.86"/>
   </cols>
   <sheetData>
@@ -4801,10 +4801,10 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="99.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="99.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="8.71"/>
   </cols>
@@ -7889,11 +7889,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.7"/>
   </cols>

--- a/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
+++ b/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -476,23 +476,27 @@
     <t xml:space="preserve">traceback</t>
   </si>
   <si>
+    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "MagicNumberCheck", "text": "'123456' is a magic number.", "line": "int variable = 123456;  // Change this line", "line_number": 4, "column_number": 24, "category": "INFO", "influence_on_penalty": 0}]}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 17, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'3' is a magic number.", "line": "System.out.println(3);", "line_number": 6, "column_number": 36, "category": "INFO", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 25, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'4' is a magic number.", "line": "System.out.println(4);", "line_number": 7, "column_number": 44, "category": "INFO", "influence_on_penalty": 0}]}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": []}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 69, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 86, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 88, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'5' is a magic number.", "line": "HashTable&lt;String&gt; data = new HashTable&lt;&gt;(5);", "line_number": 105, "column_number": 50, "category": "INFO", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 69, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 86, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 88, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 73, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 92, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 13, "category": "ERROR_PRONE", "influence_on_penalty": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 73, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 92, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 1, "category": "ERROR_PRONE", "influence_on_penalty": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 1, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 82, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "AssignmentInOperand", "text": "Avoid assignments in operands", "line": "while (n-- &gt; 0) {", "line_number": 92, "column_number": 1, "category": "ERROR_PRONE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 14, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 14, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 82, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'10000' is a magic number.", "line": "HashTable&lt;String&gt; ht = new HashTable(10000);", "line_number": 90, "column_number": 46, "category": "INFO", "influence_on_penalty": 0}, {"code": "AssignmentInOperand", "text": "Avoid assignments in operands", "line": "while (n-- &gt; 0) {", "line_number": 92, "column_number": 1, "category": "ERROR_PRONE", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
@@ -827,9 +831,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.86"/>
   </cols>
   <sheetData>
@@ -28955,15 +28959,15 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="99.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="99.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.86"/>
   </cols>
   <sheetData>
@@ -36115,13 +36119,13 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.7"/>
   </cols>
   <sheetData>
@@ -36175,7 +36179,7 @@
       <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -36195,11 +36199,11 @@
       <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>33</v>
@@ -36215,11 +36219,11 @@
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>35</v>
@@ -36239,7 +36243,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>36</v>
@@ -36259,7 +36263,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>36</v>
@@ -36279,7 +36283,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>35</v>
@@ -36299,7 +36303,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>35</v>
@@ -36319,7 +36323,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>35</v>
@@ -36339,7 +36343,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>33</v>
@@ -36359,7 +36363,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>33</v>
@@ -36379,7 +36383,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>33</v>

--- a/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
+++ b/test/resources/evaluation/xlsx_target_files/target_sorted_order.xlsx
@@ -476,11 +476,11 @@
     <t xml:space="preserve">traceback</t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "MagicNumberCheck", "text": "'123456' is a magic number.", "line": "int variable = 123456;  // Change this line", "line_number": 4, "column_number": 24, "category": "INFO", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "MagicNumberCheck", "text": "'123456' is a magic number.", "line": "int variable = 123456;  // Change this line", "line_number": 4, "column_number": 24, "category": "INFO", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 17, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'3' is a magic number.", "line": "System.out.println(3);", "line_number": 6, "column_number": 36, "category": "INFO", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 25, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'4' is a magic number.", "line": "System.out.println(4);", "line_number": 7, "column_number": 44, "category": "INFO", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "MODERATE", "text": "Code quality (beta): MODERATE"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 16, expected level should be 8.", "line": "System.out.println(3);", "line_number": 6, "column_number": 17, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'3' is a magic number.", "line": "System.out.println(3);", "line_number": 6, "column_number": 36, "category": "INFO", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 24, expected level should be 8.", "line": "System.out.println(4);", "line_number": 7, "column_number": 25, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'4' is a magic number.", "line": "System.out.println(4);", "line_number": 7, "column_number": 44, "category": "INFO", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
@@ -488,31 +488,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 69, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 86, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 88, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'5' is a magic number.", "line": "HashTable&lt;String&gt; data = new HashTable&lt;&gt;(5);", "line_number": 105, "column_number": 50, "category": "INFO", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 69, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 86, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 88, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'5' is a magic number.", "line": "HashTable&lt;String&gt; data = new HashTable&lt;&gt;(5);", "line_number": 105, "column_number": 50, "category": "INFO", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 73, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 92, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 13, "category": "ERROR_PRONE", "influence_on_penalty": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 73, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": null\");", "line_number": 90, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "InefficientStringBuffering", "text": "Avoid concatenating nonliterals in a StringBuffer/StringBuilder constructor or append().", "line": "tableStringBuilder.append(i + \": key=\" + table[i].getKey()", "line_number": 92, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "MissingSwitchDefaultCheck", "text": "switch without \"default\" clause.", "line": "switch (command) {", "line_number": 112, "column_number": 13, "category": "ERROR_PRONE", "difficulty": "HARD", "influence_on_penalty": 0}, {"code": "NoWhitespaceAfterCheck", "text": "'-' is followed by whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 54, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "WhitespaceAroundCheck", "text": "':' is not preceded with whitespace.", "line": "System.out.println(val == null ? - 1: val);", "line_number": 118, "column_number": 57, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 14, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 14, "category": "CODE_STYLE", "influence_on_penalty": 0}, {"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 82, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'10000' is a magic number.", "line": "HashTable&lt;String&gt; ht = new HashTable(10000);", "line_number": 90, "column_number": 46, "category": "INFO", "influence_on_penalty": 0}, {"code": "AssignmentInOperand", "text": "Avoid assignments in operands", "line": "while (n-- &gt; 0) {", "line_number": 92, "column_number": 1, "category": "ERROR_PRONE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "BAD", "text": "Code quality (beta): BAD"}, "issues": [{"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "removed = true;", "line_number": 23, "column_number": 14, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "IndentationCheck", "text": "'method def' child has incorrect indentation level 13, expected level should be 12.", "line": "return removed;", "line_number": 27, "column_number": 14, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "UnusedPrivateMethod", "text": "Avoid unused private methods such as 'rehash()'.", "line": "private void rehash() {", "line_number": 82, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "MagicNumberCheck", "text": "'10000' is a magic number.", "line": "HashTable&lt;String&gt; ht = new HashTable(10000);", "line_number": 90, "column_number": 46, "category": "INFO", "difficulty": "EASY", "influence_on_penalty": 0}, {"code": "AssignmentInOperand", "text": "Avoid assignments in operands", "line": "while (n-- &gt; 0) {", "line_number": 92, "column_number": 1, "category": "ERROR_PRONE", "difficulty": "HARD", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "NoSemicolons", "text": "Unnecessary semicolon", "line": "import java.util.*;", "line_number": 1, "column_number": 19, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "NoSemicolons", "text": "Unnecessary semicolon", "line": "import java.util.*;", "line_number": 1, "column_number": 19, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundOperators", "text": "Missing spacing around \"/\"", "line": "print(3/0)", "line_number": 3, "column_number": 12, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundOperators", "text": "Missing spacing around \"/\"", "line": "print(3/0)", "line_number": 3, "column_number": 12, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundCurly", "text": "Missing spacing before \"{\"", "line": "repeat(10){", "line_number": 8, "column_number": 15, "category": "CODE_STYLE", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "GOOD", "text": "Code quality (beta): GOOD"}, "issues": [{"code": "SpacingAroundCurly", "text": "Missing spacing before \"{\"", "line": "repeat(10){", "line_number": 8, "column_number": 15, "category": "CODE_STYLE", "difficulty": "EASY", "influence_on_penalty": 0}]}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "WPS327", "text": "Found useless `continue` at the end of the loop", "line": "for word in words:", "line_number": 3, "column_number": 1, "category": "BEST_PRACTICES", "influence_on_penalty": 0}, {"code": "WPS223", "text": "Found too many `elif` branches: 5 &gt; 3", "line": "if word.startswith(\"WWW.\"):", "line_number": 5, "column_number": 5, "category": "COMPLEXITY", "influence_on_penalty": 0}]}
+    <t xml:space="preserve">{"quality": {"code": "EXCELLENT", "text": "Code quality (beta): EXCELLENT"}, "issues": [{"code": "WPS327", "text": "Found useless `continue` at the end of the loop", "line": "for word in words:", "line_number": 3, "column_number": 1, "category": "BEST_PRACTICES", "difficulty": "MEDIUM", "influence_on_penalty": 0}, {"code": "WPS223", "text": "Found too many `elif` branches: 5 &gt; 3", "line": "if word.startswith(\"WWW.\"):", "line_number": 5, "column_number": 5, "category": "COMPLEXITY", "difficulty": "HARD", "influence_on_penalty": 0}]}
 </t>
   </si>
 </sst>
@@ -831,7 +831,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="93.86"/>
@@ -28963,7 +28963,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.71"/>
@@ -36119,11 +36119,11 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.7"/>
@@ -36162,7 +36162,7 @@
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -36182,7 +36182,7 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -36202,7 +36202,7 @@
       <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -36222,7 +36222,7 @@
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -36242,7 +36242,7 @@
       <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -36262,7 +36262,7 @@
       <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="17" t="s">
